--- a/1/Book1.xlsx
+++ b/1/Book1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanquan/Desktop/UCR-CS211-HPC/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2800CD-7C80-9B42-A200-97B57CA96D04}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A7D0C6-6A32-8244-9F49-57DA9342CFE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="5920" windowWidth="28040" windowHeight="17440" xr2:uid="{712FE51C-AF86-354C-97E3-9847158B6192}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" activeTab="1" xr2:uid="{712FE51C-AF86-354C-97E3-9847158B6192}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="1" r:id="rId1"/>
+    <sheet name="Cache" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
   <si>
     <t>n</t>
   </si>
@@ -43,16 +44,86 @@
   </si>
   <si>
     <t>Performance (GFLOPS)</t>
+  </si>
+  <si>
+    <t>dgemm3</t>
+  </si>
+  <si>
+    <t>Cache Miss Per Element</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Number of Cache Read</t>
+  </si>
+  <si>
+    <t>Miss Rate</t>
+  </si>
+  <si>
+    <t>ijk/jik</t>
+  </si>
+  <si>
+    <t>ikj/kij</t>
+  </si>
+  <si>
+    <t>jki/kji</t>
+  </si>
+  <si>
+    <t>n^3</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>about 55%</t>
+  </si>
+  <si>
+    <t>n
+for a[,k] | k%10==0</t>
+  </si>
+  <si>
+    <t>n
+for b[,j] | j%10==0</t>
+  </si>
+  <si>
+    <t>n
+for c[,j] | j%10==0</t>
+  </si>
+  <si>
+    <t>about 10%</t>
+  </si>
+  <si>
+    <t>1 if k%10==0</t>
+  </si>
+  <si>
+    <t>1 if j%10==0</t>
+  </si>
+  <si>
+    <t>1 if i%10==0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -74,14 +145,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,16 +581,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8CBB3A-0FF9-0D49-81FA-B7796343228C}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -420,7 +604,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -440,166 +625,801 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>64</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>7.182E-3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4.8719999999999996E-3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>1.923E-3</v>
       </c>
       <c r="E3">
         <f>2*POWER($A3, 3)/B3/POWER(10, 9)</f>
-        <v>5.2428800000000003E-4</v>
+        <v>7.3000278473962676E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:G3" si="0">2*POWER($A3, 3)/C3/POWER(10, 9)</f>
-        <v>5.2428800000000003E-4</v>
+        <v>0.10761247947454844</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>5.2428800000000003E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.27264066562662503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>128</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3.9572999999999997E-2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2.5783E-2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>8.4130000000000003E-3</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E8" si="1">2*POWER($A4, 3)/B4/POWER(10, 9)</f>
-        <v>4.1943040000000003E-3</v>
+        <v>0.1059890329264903</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F8" si="2">2*POWER($A4, 3)/C4/POWER(10, 9)</f>
-        <v>4.1943040000000003E-3</v>
+        <v>0.16267711282628089</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G8" si="3">2*POWER($A4, 3)/D4/POWER(10, 9)</f>
-        <v>4.1943040000000003E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.49855033876144061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>256</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.28372599999999998</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.156723</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5.1325000000000003E-2</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>3.3554432000000002E-2</v>
+        <v>0.11826350775043529</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>3.3554432000000002E-2</v>
+        <v>0.2141002405518016</v>
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>3.3554432000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.65376389673648316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>512</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3.127462</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.8937280000000001</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.73127500000000001</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.26843545600000002</v>
+        <v>8.5831724254363445E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.26843545600000002</v>
+        <v>0.14174974230723736</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>0.26843545600000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.36707867218214763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1024</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>25.557462999999998</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>17.926470999999999</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>7.3847230000000001</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>2.1474836480000001</v>
+        <v>8.4025697229807197E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>2.1474836480000001</v>
+        <v>0.11979399894156524</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>2.1474836480000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.29080083951693242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2048</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>443.91126300000002</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>265.42637300000001</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>99.790431999999996</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>17.179869184000001</v>
+        <v>3.8701133798445655E-2</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>17.179869184000001</v>
+        <v>6.4725554547663572E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>17.179869184000001</v>
+        <v>0.17215948302538667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>66</v>
+      </c>
+      <c r="B12">
+        <v>3.2620000000000001E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.99E-3</v>
+      </c>
+      <c r="D12">
+        <v>8.43E-4</v>
+      </c>
+      <c r="E12">
+        <v>7.4200000000000004E-4</v>
+      </c>
+      <c r="F12">
+        <f>2*POWER($A12, 3)/B12/POWER(10, 9)</f>
+        <v>0.17626977314530962</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:I12" si="4">2*POWER($A12, 3)/C12/POWER(10, 9)</f>
+        <v>0.28894070351758794</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0.68207829181494661</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0.77492183288409699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>132</v>
+      </c>
+      <c r="B13">
+        <v>2.9175E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.7559000000000002E-2</v>
+      </c>
+      <c r="D13">
+        <v>7.097E-3</v>
+      </c>
+      <c r="E13">
+        <v>5.8739999999999999E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F17" si="5">2*POWER($A13, 3)/B13/POWER(10, 9)</f>
+        <v>0.15766704370179949</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G17" si="6">2*POWER($A13, 3)/C13/POWER(10, 9)</f>
+        <v>0.26197027165556125</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H17" si="7">2*POWER($A13, 3)/D13/POWER(10, 9)</f>
+        <v>0.6481521769761871</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I17" si="8">2*POWER($A13, 3)/E13/POWER(10, 9)</f>
+        <v>0.78310112359550554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>258</v>
+      </c>
+      <c r="B14">
+        <v>0.26364300000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.14707100000000001</v>
+      </c>
+      <c r="D14">
+        <v>6.2493E-2</v>
+      </c>
+      <c r="E14">
+        <v>4.6559999999999997E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>0.13027853574720361</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>0.23354042605272282</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>0.54961394076136527</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>0.73769381443298976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>516</v>
+      </c>
+      <c r="B15">
+        <v>2.4132829999999998</v>
+      </c>
+      <c r="C15">
+        <v>1.4372799999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.62569900000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.42389700000000002</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>0.11385991282414869</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>0.19117791383724814</v>
+      </c>
+      <c r="H15">
+        <f>2*POWER($A15, 3)/D15/POWER(10, 9)</f>
+        <v>0.43915076098891004</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>0.64821452381120881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1026</v>
+      </c>
+      <c r="B16">
+        <v>19.001283000000001</v>
+      </c>
+      <c r="C16">
+        <v>12.314581</v>
+      </c>
+      <c r="D16">
+        <v>5.2411180000000002</v>
+      </c>
+      <c r="E16">
+        <v>2.8578169999999998</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>0.11368133151850851</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>0.17540922845852408</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>0.4121432015077699</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>0.75585355955262368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2052</v>
+      </c>
+      <c r="B17">
+        <v>192.390376</v>
+      </c>
+      <c r="C17">
+        <v>107.058477</v>
+      </c>
+      <c r="D17">
+        <v>65.766211999999996</v>
+      </c>
+      <c r="E17">
+        <v>30.809667000000001</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>8.9821172842866101E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>0.16141392723156336</v>
+      </c>
+      <c r="H17">
+        <f>2*POWER($A17, 3)/D17/POWER(10, 9)</f>
+        <v>0.26275999012988616</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>0.5608865949768298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>0.17626977314530962</v>
+      </c>
+      <c r="C21">
+        <v>0.28894070351758794</v>
+      </c>
+      <c r="D21">
+        <v>0.68207829181494661</v>
+      </c>
+      <c r="E21">
+        <v>0.77492183288409699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>132</v>
+      </c>
+      <c r="B22">
+        <v>0.15766704370179949</v>
+      </c>
+      <c r="C22">
+        <v>0.26197027165556125</v>
+      </c>
+      <c r="D22">
+        <v>0.6481521769761871</v>
+      </c>
+      <c r="E22">
+        <v>0.78310112359550554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>258</v>
+      </c>
+      <c r="B23">
+        <v>0.13027853574720361</v>
+      </c>
+      <c r="C23">
+        <v>0.23354042605272282</v>
+      </c>
+      <c r="D23">
+        <v>0.54961394076136527</v>
+      </c>
+      <c r="E23">
+        <v>0.73769381443298976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>516</v>
+      </c>
+      <c r="B24">
+        <v>0.11385991282414869</v>
+      </c>
+      <c r="C24">
+        <v>0.19117791383724814</v>
+      </c>
+      <c r="D24">
+        <v>0.43915076098891004</v>
+      </c>
+      <c r="E24">
+        <v>0.64821452381120881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1026</v>
+      </c>
+      <c r="B25">
+        <v>0.11368133151850851</v>
+      </c>
+      <c r="C25">
+        <v>0.17540922845852408</v>
+      </c>
+      <c r="D25">
+        <v>0.4121432015077699</v>
+      </c>
+      <c r="E25">
+        <v>0.75585355955262368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2052</v>
+      </c>
+      <c r="B26">
+        <v>8.9821172842866101E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.16141392723156336</v>
+      </c>
+      <c r="D26">
+        <v>0.26275999012988616</v>
+      </c>
+      <c r="E26">
+        <v>0.5608865949768298</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0602B7-9459-F24B-A750-F2261B21649B}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
